--- a/PangkalanData/public/Template/Template Musikalisasi Puisi Provinsi.xlsx
+++ b/PangkalanData/public/Template/Template Musikalisasi Puisi Provinsi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9335"/>
+    <workbookView windowWidth="21000" windowHeight="8592"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Provinsi</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tahun</t>
   </si>
@@ -45,10 +42,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -65,6 +62,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -72,60 +77,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,6 +138,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -170,16 +161,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +178,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,15 +193,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,37 +228,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,139 +396,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -451,15 +448,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,6 +517,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -540,148 +537,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1039,13 +1036,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="29.4259259259259" customWidth="1"/>
     <col min="2" max="3" width="17.5648148148148" customWidth="1"/>
@@ -1055,7 +1052,7 @@
     <col min="7" max="7" width="20.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:8">
+    <row r="1" ht="25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1077,9 +1074,6 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2"/>

--- a/PangkalanData/public/Template/Template Musikalisasi Puisi Provinsi.xlsx
+++ b/PangkalanData/public/Template/Template Musikalisasi Puisi Provinsi.xlsx
@@ -54,10 +54,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -81,6 +81,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -89,8 +103,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,59 +142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -189,15 +174,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,25 +252,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,7 +384,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,145 +426,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,21 +536,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -574,11 +559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,6 +591,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -616,6 +616,9 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -625,136 +628,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1116,7 +1116,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
